--- a/results.xlsx
+++ b/results.xlsx
@@ -466,23 +466,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>28.15934972826487</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.809211254119873</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2532654620788909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.49696747774068</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9960044026374817</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2889948133583908</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.635</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
       </c>
     </row>
   </sheetData>
